--- a/pred_ohlcv/54_21/2020-01-23 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XRP ohlcv.xlsx
@@ -5332,7 +5332,7 @@
         <v>-3149931.92260575</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3173339.41870575</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3168580.83020575</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3185215.97520575</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3167560.25510575</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3149663.32310575</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3080116.38340575</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2720414.03450063</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2759609.17450063</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2780129.31850063</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2784580.78240063</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-1765562.137448251</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1696031.073848251</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-1749547.139334331</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1626158.058888182</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1548966.845326731</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-1605083.693626731</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1725790.573826731</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1801896.677661262</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1773210.668503301</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1814446.752786161</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-1785244.336186161</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1838597.567786161</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-1882416.795606081</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-1703506.306514981</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-1728883.393214982</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-1895934.412465122</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-1999040.842765122</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-1945189.616865122</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1724048.647365122</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1773951.728965122</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-1786125.094165121</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-1844026.987765122</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-1744981.952886251</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1775151.547786251</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-4068912.682165001</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1008">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-4027220.108465441</v>
       </c>
       <c r="H1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-4065995.013965441</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-4060595.766765441</v>
       </c>
       <c r="H1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-4053645.766765441</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4057417.547298571</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4046702.374498571</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4059125.525598571</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4100790.128598571</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4181106.699198571</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-4161844.072242261</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-4115245.818484391</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-4175411.628584391</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-4143776.894645251</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-4167900.710545251</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-4121639.011645251</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-4060411.455817431</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-4068198.221517431</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-4064071.222517431</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-4050502.019236171</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-4043862.090036171</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-4127201.157736171</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-4111860.271136171</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-4121266.447336171</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-4128299.205336171</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-4145594.154018871</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-4138168.372667611</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-4237172.504767611</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-4292202.14756761</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-4198930.80106761</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-4193396.60706761</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-4144035.87076761</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-4160801.92846761</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-4207060.06506761</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-4214966.63416761</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-4150814.87307669</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3993926.46207669</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-3993772.46207669</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-3944243.47697669</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-3968930.64480631</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-3906841.48240631</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-3910412.29780631</v>
       </c>
       <c r="H1140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-4077748.20488481</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-3930265.40578742</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-3988591.13968742</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-3981718.30608742</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-4038324.32528742</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-3830560.49278742</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-3934970.32608742</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-4056081.96098742</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-4039037.66211027</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-4043928.41041027</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-4084432.33821027</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-4084429.73201027</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-4192656.72133053</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3935213.791730531</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-3923619.749430531</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-3923619.749430531</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-3944604.986230531</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-4131569.476984061</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-4102324.495384061</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-4106666.960084061</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-4106666.960084061</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-4106666.960084061</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-4445242.81028406</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4499135.74834728</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4462413.42844728</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4470233.89024728</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-4469597.62164728</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-4528126.864747279</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-4523877.42924728</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-4516999.60614728</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-4611020.46790348</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-4559579.41258973</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-4642184.916589729</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XRP ohlcv.xlsx
@@ -6372,7 +6372,7 @@
         <v>-2720414.03450063</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2759609.17450063</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2780129.31850063</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2784580.78240063</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-1696031.073848251</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-1749547.139334331</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-1626158.058888182</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1548966.845326731</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-1605083.693626731</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1725790.573826731</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1801896.677661262</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1773210.668503301</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1814446.752786161</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-1785244.336186161</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1838597.567786161</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-1882416.795606081</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-1703506.306514981</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-1728883.393214982</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-1895934.412465122</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-3923471.523975271</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-3947558.394275271</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-3973608.615875271</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-3938347.058575271</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-3964288.631163441</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-4040923.219663441</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-4040923.219663441</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-4040915.806765001</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-4068912.682165001</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-4068912.682165001</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-3996532.089265001</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-4037643.112565001</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-4037643.112565001</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-4037416.555965001</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-4038455.144465001</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-4049926.300165001</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-4023880.851465001</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-4031770.005965001</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-4018275.746765001</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-4027220.108465441</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-4027220.108465441</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-4065995.013965441</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-4060595.766765441</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-4053645.766765441</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-3859202.690365441</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-3867187.060665441</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-3854181.919665441</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3838804.37169857</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-4044042.998498571</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-4051677.503798571</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-4033788.883298571</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-4033788.883298571</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-4057437.646498571</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-4057407.646498571</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4057417.547298571</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4046702.374498571</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4059125.525598571</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4100790.128598571</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4181106.699198571</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-4161844.072242261</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-4148780.293284391</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-4115245.818484391</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-4175411.628584391</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-4175411.628584391</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-4189402.840445251</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-4189402.840445251</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-4175664.962745251</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-4143776.894645251</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-4143850.366345251</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-4131998.954545252</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-4118739.363945251</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-4118739.363945251</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-4149060.846745251</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-4167900.710545251</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-4097551.783045251</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-4121639.011645251</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-4060411.455817431</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-4068198.221517431</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-4064071.222517431</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-4050502.019236171</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-4043862.090036171</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-4127201.157736171</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-4111860.271136171</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-4121266.447336171</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-4128299.205336171</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-4145594.154018871</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-4138168.372667611</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-4237172.504767611</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-4292202.14756761</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-4198930.80106761</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-4193396.60706761</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-4144035.87076761</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-4160801.92846761</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-4207060.06506761</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-4214966.63416761</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-4150814.87307669</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3993926.46207669</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-3993772.46207669</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-3944243.47697669</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-3966623.33180631</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-3966623.33180631</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-3968930.64480631</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-3906841.48240631</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-3910412.29780631</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-3931572.941835931</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-3971547.39774356</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-3845299.483651191</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-3844203.43825119</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-3837113.28945119</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-3837113.28945119</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-3845744.56145119</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-3845744.56145119</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-3923447.27895119</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-3890840.74845119</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3925568.08105119</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-3890804.87235119</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-3895512.98915119</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-3895512.98915119</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-3885981.11545119</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-3915130.94965119</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-3915130.94965119</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-3934531.75285119</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-3897273.92245119</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-3897273.92245119</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-3897395.73965119</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-3889397.49628481</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-3829751.83838481</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-3935730.95858481</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-3927556.61498481</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-3946278.65488481</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-3946278.65488481</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-3942243.82848481</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-3942638.19408481</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-3941903.26438481</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-3943628.84488481</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-3953341.21598481</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-3903877.18508481</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-3943857.07988481</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-3988179.05408481</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-4077748.20488481</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-3930265.40578742</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-3988591.13968742</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-3981718.30608742</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-4038324.32528742</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-3830560.49278742</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-3934970.32608742</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-4056081.96098742</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-4026157.57491027</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-4043928.41041027</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-4084432.33821027</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-4084429.73201027</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-4192656.72133053</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3935213.791730531</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-3923619.749430531</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-4131569.476984061</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-4102324.495384061</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-4106666.960084061</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-4445242.81028406</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-4568006.05454728</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4499135.74834728</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4462413.42844728</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4470233.89024728</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-4469597.62164728</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-4528126.864747279</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-4523877.42924728</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-4523887.42924728</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-4516999.60614728</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-4611020.46790348</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-4559579.41258973</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-4642184.916589729</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
